--- a/branches/HUFS/Documents/ScreenDesign/DanhMucThuoc.xlsx
+++ b/branches/HUFS/Documents/ScreenDesign/DanhMucThuoc.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\PartTime\HUFS\Documents\ScreenDesign\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Mã Thuốc</t>
   </si>
@@ -228,6 +223,15 @@
   </si>
   <si>
     <t>Thế nào là nhóm thuốc theo công dụng?Hệ số an toàn?</t>
+  </si>
+  <si>
+    <t>He so an toàn giống như số lượng an toàn trong kho cần phãi có</t>
+  </si>
+  <si>
+    <t>nhóm thuốc theo công dụng se discuss thêm sau</t>
+  </si>
+  <si>
+    <t>Thêm phần search la hợp lý</t>
   </si>
 </sst>
 </file>
@@ -446,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -482,12 +486,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,6 +500,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,7 +603,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,7 +815,7 @@
   <dimension ref="B1:N260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,31 +845,31 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="27"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1040,10 +1045,10 @@
       <c r="K13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -4329,7 +4334,7 @@
       <c r="J255" s="10"/>
       <c r="K255" s="10"/>
       <c r="L255" s="10"/>
-      <c r="M255" s="21"/>
+      <c r="M255" s="27"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B256" s="10"/>
@@ -4342,7 +4347,7 @@
       <c r="J256" s="10"/>
       <c r="K256" s="10"/>
       <c r="L256" s="10"/>
-      <c r="M256" s="21"/>
+      <c r="M256" s="27"/>
     </row>
     <row r="257" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B257" s="10"/>
@@ -4408,10 +4413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:G9"/>
+  <dimension ref="D1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,51 +4454,64 @@
     <col min="34" max="34" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F1" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F5" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="28" t="s">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="26" t="s">
         <v>68</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="29" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/branches/HUFS/Documents/ScreenDesign/DanhMucThuoc.xlsx
+++ b/branches/HUFS/Documents/ScreenDesign/DanhMucThuoc.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\PartTime\HUFS\Documents\ScreenDesign\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Mã Thuốc</t>
   </si>
@@ -232,6 +237,12 @@
   </si>
   <si>
     <t>Thêm phần search la hợp lý</t>
+  </si>
+  <si>
+    <t>Khi add mới thì se reload all</t>
+  </si>
+  <si>
+    <t>Khi cập nhật thì sẽ load theo filter người dùng nhập vào?</t>
   </si>
 </sst>
 </file>
@@ -500,13 +511,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +614,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,10 +1056,10 @@
       <c r="K13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="28"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -4334,7 +4345,7 @@
       <c r="J255" s="10"/>
       <c r="K255" s="10"/>
       <c r="L255" s="10"/>
-      <c r="M255" s="27"/>
+      <c r="M255" s="28"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B256" s="10"/>
@@ -4347,7 +4358,7 @@
       <c r="J256" s="10"/>
       <c r="K256" s="10"/>
       <c r="L256" s="10"/>
-      <c r="M256" s="27"/>
+      <c r="M256" s="28"/>
     </row>
     <row r="257" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B257" s="10"/>
@@ -4413,10 +4424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:I11"/>
+  <dimension ref="D1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4500,18 +4511,28 @@
       <c r="G9" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="27" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/branches/HUFS/Documents/ScreenDesign/DanhMucThuoc.xlsx
+++ b/branches/HUFS/Documents/ScreenDesign/DanhMucThuoc.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>Mã Thuốc</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Tạo mới</t>
   </si>
   <si>
-    <t>Tìm kiếm thuốc</t>
-  </si>
-  <si>
     <t>Tìm</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
   </si>
   <si>
     <t>Textbox auto complete</t>
-  </si>
-  <si>
-    <t>Search like</t>
   </si>
   <si>
     <t>Thông tin giá chỉ là giá tham khảo</t>
@@ -314,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,12 +330,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -479,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -523,9 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -842,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N261"/>
+  <dimension ref="B1:N256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,333 +850,400 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>0</v>
+      <c r="B8" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="H13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12">
+        <v>4</v>
+      </c>
+      <c r="M14" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12">
+        <v>13</v>
+      </c>
+      <c r="M15" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12">
+        <v>2</v>
+      </c>
+      <c r="M17" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12">
+        <v>2</v>
+      </c>
+      <c r="M18" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="12"/>
@@ -1202,18 +1254,18 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12"/>
@@ -1224,18 +1276,18 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M20" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="12"/>
@@ -1246,18 +1298,18 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="M21" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="12"/>
@@ -1268,19 +1320,15 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M22" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>20</v>
-      </c>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="8"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1290,19 +1338,15 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M23" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>22</v>
-      </c>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="8"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1312,19 +1356,15 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="M24" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>24</v>
-      </c>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="8"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -1334,19 +1374,15 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="M25" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>26</v>
-      </c>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="8"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -1362,101 +1398,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12">
-        <v>8</v>
-      </c>
-      <c r="M27" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12">
-        <v>27</v>
-      </c>
-      <c r="M28" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12">
-        <v>25</v>
-      </c>
-      <c r="M29" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12">
-        <v>41</v>
-      </c>
-      <c r="M30" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12">
-        <v>41</v>
-      </c>
-      <c r="M31" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="E32" s="9"/>
@@ -2918,8 +2925,12 @@
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="H144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -2931,8 +2942,12 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
+      <c r="H145" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
@@ -2944,8 +2959,12 @@
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
+      <c r="H146" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
@@ -2957,8 +2976,12 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
+      <c r="H147" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
@@ -2970,8 +2993,12 @@
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
+      <c r="H148" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
@@ -2984,10 +3011,10 @@
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
@@ -3001,10 +3028,10 @@
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
@@ -3018,10 +3045,10 @@
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
@@ -3034,12 +3061,8 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
-      <c r="H152" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I152" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
@@ -3051,12 +3074,8 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
-      <c r="H153" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I153" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
@@ -3068,12 +3087,8 @@
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
-      <c r="H154" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I154" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
@@ -3085,12 +3100,8 @@
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
-      <c r="H155" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I155" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
@@ -3102,12 +3113,8 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
-      <c r="H156" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I156" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -4335,7 +4342,7 @@
       <c r="L250" s="9"/>
       <c r="M250" s="9"/>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
       <c r="E251" s="9"/>
@@ -4346,7 +4353,7 @@
       <c r="J251" s="9"/>
       <c r="K251" s="9"/>
       <c r="L251" s="9"/>
-      <c r="M251" s="9"/>
+      <c r="M251" s="28"/>
     </row>
     <row r="252" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B252" s="9"/>
@@ -4359,7 +4366,7 @@
       <c r="J252" s="9"/>
       <c r="K252" s="9"/>
       <c r="L252" s="9"/>
-      <c r="M252" s="9"/>
+      <c r="M252" s="28"/>
     </row>
     <row r="253" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B253" s="9"/>
@@ -4400,7 +4407,7 @@
       <c r="L255" s="9"/>
       <c r="M255" s="9"/>
     </row>
-    <row r="256" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
       <c r="E256" s="9"/>
@@ -4411,78 +4418,13 @@
       <c r="J256" s="9"/>
       <c r="K256" s="9"/>
       <c r="L256" s="9"/>
-      <c r="M256" s="29"/>
-    </row>
-    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B257" s="9"/>
-      <c r="C257" s="9"/>
-      <c r="E257" s="9"/>
-      <c r="F257" s="9"/>
-      <c r="G257" s="9"/>
-      <c r="H257" s="9"/>
-      <c r="I257" s="9"/>
-      <c r="J257" s="9"/>
-      <c r="K257" s="9"/>
-      <c r="L257" s="9"/>
-      <c r="M257" s="29"/>
-    </row>
-    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B258" s="9"/>
-      <c r="C258" s="9"/>
-      <c r="E258" s="9"/>
-      <c r="F258" s="9"/>
-      <c r="G258" s="9"/>
-      <c r="H258" s="9"/>
-      <c r="I258" s="9"/>
-      <c r="J258" s="9"/>
-      <c r="K258" s="9"/>
-      <c r="L258" s="9"/>
-      <c r="M258" s="9"/>
-    </row>
-    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="9"/>
-      <c r="C259" s="9"/>
-      <c r="E259" s="9"/>
-      <c r="F259" s="9"/>
-      <c r="G259" s="9"/>
-      <c r="H259" s="9"/>
-      <c r="I259" s="9"/>
-      <c r="J259" s="9"/>
-      <c r="K259" s="9"/>
-      <c r="L259" s="9"/>
-      <c r="M259" s="9"/>
-    </row>
-    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B260" s="9"/>
-      <c r="C260" s="9"/>
-      <c r="E260" s="9"/>
-      <c r="F260" s="9"/>
-      <c r="G260" s="9"/>
-      <c r="H260" s="9"/>
-      <c r="I260" s="9"/>
-      <c r="J260" s="9"/>
-      <c r="K260" s="9"/>
-      <c r="L260" s="9"/>
-      <c r="M260" s="9"/>
-    </row>
-    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
-      <c r="E261" s="9"/>
-      <c r="F261" s="9"/>
-      <c r="G261" s="9"/>
-      <c r="H261" s="9"/>
-      <c r="I261" s="9"/>
-      <c r="J261" s="9"/>
-      <c r="K261" s="9"/>
-      <c r="L261" s="9"/>
-      <c r="M261" s="9"/>
+      <c r="M256" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="M256:M257"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M251:M252"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4494,7 +4436,7 @@
   <dimension ref="D1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4534,77 +4476,77 @@
   <sheetData>
     <row r="1" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="25" t="s">
+      <c r="I9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="26" t="s">
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="26" t="s">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="25" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
